--- a/tests/test_data/output/extracted_tables.xlsx
+++ b/tests/test_data/output/extracted_tables.xlsx
@@ -7,40 +7,28 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="상해관련 특별약관_54_1" sheetId="1" r:id="rId1"/>
-    <sheet name="상해관련 특별약관_54_2" sheetId="2" r:id="rId2"/>
-    <sheet name="질병관련 특별약관_59_1" sheetId="3" r:id="rId3"/>
-    <sheet name="질병관련 특별약관_59_2" sheetId="4" r:id="rId4"/>
-    <sheet name="질병관련 특별약관_87_1" sheetId="5" r:id="rId5"/>
-    <sheet name="상해및질병관련특별약관_87_1" sheetId="6" r:id="rId6"/>
+    <sheet name="상해관련특별약관" sheetId="1" r:id="rId1"/>
+    <sheet name="질병관련특별약관" sheetId="2" r:id="rId2"/>
+    <sheet name="상해및질병관련특별약관" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
-  <si>
-    <t>보장명</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>상해관련 특별약관 - P54T1</t>
+  </si>
+  <si>
+    <t>상해관련 특별약관 - P54T2</t>
   </si>
   <si>
     <t>보험료납입면제대상보장 
 (2대기본)</t>
-  </si>
-  <si>
-    <t>지 급 사 유</t>
-  </si>
-  <si>
-    <t>아래 사항중 어느 한가지의 경우에 해당시 
- ① 상해사고로 80%이상 후유장해시 
- ② 질병으로 80%이상 후유장해시</t>
-  </si>
-  <si>
-    <t>지급 금액</t>
-  </si>
-  <si>
-    <t>가입금액 
-(최초1회한)</t>
   </si>
   <si>
     <t>일반상해후유장해 
@@ -102,6 +90,11 @@
 (연간3회한)</t>
   </si>
   <si>
+    <t>아래 사항중 어느 한가지의 경우에 해당시 
+ ① 상해사고로 80%이상 후유장해시 
+ ② 질병으로 80%이상 후유장해시</t>
+  </si>
+  <si>
     <t>상해사고로 3~100% 후유장해시</t>
   </si>
   <si>
@@ -149,6 +142,10 @@
     <t>상해사고로 치아파절 진단확정시</t>
   </si>
   <si>
+    <t>가입금액 
+(최초1회한)</t>
+  </si>
+  <si>
     <t>가입금액×지급률</t>
   </si>
   <si>
@@ -164,6 +161,15 @@
   <si>
     <t>가입금액(1사고당, 
 연간3회한)</t>
+  </si>
+  <si>
+    <t>질병관련 특별약관 - P59T1</t>
+  </si>
+  <si>
+    <t>질병관련 특별약관 - P59T2</t>
+  </si>
+  <si>
+    <t>질병관련 특별약관 - P87T1</t>
   </si>
   <si>
     <t>상해수술비(특정경증상해 
@@ -215,43 +221,10 @@
 【갱신계약】</t>
   </si>
   <si>
-    <t>아래 2개의 세부보장별 지급사유에 따름</t>
-  </si>
-  <si>
-    <t>상해사고로 병원 또는 의원에 2일이상 입원하여 수술
-시</t>
-  </si>
-  <si>
-    <t>상해사고로 병원 또는 의원에 통원하거나 당일입원하
-여 수술시</t>
-  </si>
-  <si>
-    <t>상해사고(특정경증상해 제외)로 병원 또는 의원에 2
-일이상 입원하여 수술시</t>
-  </si>
-  <si>
-    <t>상해사고(특정경증상해 제외)로 병원 또는 의원에 통
-원하거나 당일입원하여 수술시</t>
-  </si>
-  <si>
-    <t>세부보장별 
-지급금</t>
-  </si>
-  <si>
-    <t>가입금액 
-(수술1회당)</t>
-  </si>
-  <si>
     <t>질병80%이상후유장해</t>
   </si>
   <si>
     <t>질병50%이상후유장해</t>
-  </si>
-  <si>
-    <t>질병으로 80%이상 후유장해시</t>
-  </si>
-  <si>
-    <t>질병으로 50% 이상 후유장해시</t>
   </si>
   <si>
     <t>상급종합병원 신특정순환계질환 
@@ -263,6 +236,31 @@
 【갱신계약】</t>
   </si>
   <si>
+    <t>아래 2개의 세부보장별 지급사유에 따름</t>
+  </si>
+  <si>
+    <t>상해사고로 병원 또는 의원에 2일이상 입원하여 수술
+시</t>
+  </si>
+  <si>
+    <t>상해사고로 병원 또는 의원에 통원하거나 당일입원하
+여 수술시</t>
+  </si>
+  <si>
+    <t>상해사고(특정경증상해 제외)로 병원 또는 의원에 2
+일이상 입원하여 수술시</t>
+  </si>
+  <si>
+    <t>상해사고(특정경증상해 제외)로 병원 또는 의원에 통
+원하거나 당일입원하여 수술시</t>
+  </si>
+  <si>
+    <t>질병으로 80%이상 후유장해시</t>
+  </si>
+  <si>
+    <t>질병으로 50% 이상 후유장해시</t>
+  </si>
+  <si>
     <t>보험기간 중 신특정순환계질환으로 진단확정되고, 보험금 
 지급 대상기간 이내에 신특정순환계질환의 직접적인 치료를
  목적으로 상급종합병원에서 신특정순환계질환 주요치료를 
@@ -270,8 +268,19 @@
 0년이내)(1년 미만 50%지급)</t>
   </si>
   <si>
+    <t>세부보장별 
+지급금</t>
+  </si>
+  <si>
+    <t>가입금액 
+(수술1회당)</t>
+  </si>
+  <si>
     <t>가입금액 
 (연간1회한)</t>
+  </si>
+  <si>
+    <t>상해및질병관련특별약관 - P87T1</t>
   </si>
 </sst>
 </file>
@@ -629,43 +638,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -675,183 +872,158 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -861,252 +1033,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
         <v>58</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
+      <c r="D2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
